--- a/test/_Input/1_args_ES.xlsx
+++ b/test/_Input/1_args_ES.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\a PSI\Data\Data analysis\XPEEM_toolkit\test\_Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A99A42-F12B-45DA-AFE5-9E2A9B58A643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70589EF-E607-42DD-84CC-9FD6644AFBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scriptParams" sheetId="3" r:id="rId1"/>
-    <sheet name="K-edgeParams" sheetId="5" r:id="rId2"/>
-    <sheet name="L-edgeParams" sheetId="2" r:id="rId3"/>
+    <sheet name="bkgParams" sheetId="6" r:id="rId2"/>
+    <sheet name="integParams" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
-  <si>
-    <t>Uncy</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>Broad mask</t>
   </si>
@@ -100,9 +97,6 @@
     <t>L2_kT</t>
   </si>
   <si>
-    <t>Revert spectra</t>
-  </si>
-  <si>
     <t>L3/L2 ratio</t>
   </si>
   <si>
@@ -142,9 +136,6 @@
     <t>[-1,847.5]</t>
   </si>
   <si>
-    <t>O_Uncy</t>
-  </si>
-  <si>
     <t>[-1,524]</t>
   </si>
   <si>
@@ -182,6 +173,18 @@
   </si>
   <si>
     <t>int_E_ranges</t>
+  </si>
+  <si>
+    <t>Flip spectra</t>
+  </si>
+  <si>
+    <t>O_dsA</t>
+  </si>
+  <si>
+    <t>Ni_dsA</t>
+  </si>
+  <si>
+    <t>dsA</t>
   </si>
 </sst>
 </file>
@@ -520,7 +523,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,48 +541,48 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -618,88 +621,124 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D25E6C8-9CC9-4B6A-8075-8324A7191510}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261313E2-8373-462F-BDA4-64574377D1ED}">
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="9" max="9" width="49.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="108.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2">
+        <v>550</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2">
-        <v>550</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" t="s">
-        <v>45</v>
+      <c r="K3">
+        <v>855</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3">
+        <v>872</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -708,118 +747,69 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827DBA5A-AB47-4BD8-A506-9746CAB59F65}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400C01E6-934C-47C9-ABCA-DFB69A25A923}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="11" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="45.42578125" customWidth="1"/>
-    <col min="14" max="14" width="47" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="108.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
         <v>25</v>
-      </c>
-      <c r="G2">
-        <v>855</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2">
-        <v>872</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/test/_Input/1_args_ES.xlsx
+++ b/test/_Input/1_args_ES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\a PSI\Data\Data analysis\XPEEM_toolkit\test\_Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70589EF-E607-42DD-84CC-9FD6644AFBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4E3EC1-4163-48AC-95B4-84EFE2142C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scriptParams" sheetId="3" r:id="rId1"/>
@@ -522,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4F7192-360D-489F-994C-5BE0AF88FCF8}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,11 +624,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261313E2-8373-462F-BDA4-64574377D1ED}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -702,9 +705,6 @@
       <c r="H2">
         <v>3</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -721,6 +721,9 @@
       </c>
       <c r="E3" t="b">
         <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>23</v>
@@ -751,7 +754,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
